--- a/biology/Botanique/Zanthoxylum_capense/Zanthoxylum_capense.xlsx
+++ b/biology/Botanique/Zanthoxylum_capense/Zanthoxylum_capense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zanthoxylum capense, est une espèce de plantes à fleurs de la famille des Rutacées. C'est un arbre que l'on trouve dans les régions orientales de l'Afrique australe, depuis les environs de Knysna, le Cap occidental jusqu'au bouclier granitique du Zimbabwe et la côte du Mozambique. Il tolère une large fourchette d'altitudes, des hauts velds (prairies d'Afrique du Sud) aux basses altitudes côtières, mais est plus répandu dans les fourrés secs ou sur les pentes et affleurements rocheux.
 Son tronc est nu, à l'exception des nombreux boutons coniques terminés chacun par une épine. Il porte des grappes de feuilles composées au bout de leurs branches. Les feuilles et les fruits ont un parfum d'agrumes, lesquels font également partie de la famille des rutacées. Les fruits sont des capsules rondes d'environ 5 mm de diamètre, entièrement recouvert de glandes. Lorsqu'elles mûrissent, elles s'ouvrent pour libérer une seule graine noire et riche en huile.
